--- a/experiment_results/balance.xlsx
+++ b/experiment_results/balance.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yguo/Documents/Research/Papers/ASE2017-FlTechsComp/Experiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yguo/RubymineProjects/altar/experiment_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50300" yWindow="5620" windowWidth="26200" windowHeight="20600" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-50300" yWindow="5620" windowWidth="26200" windowHeight="20600" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="balance_Simple" sheetId="1" r:id="rId1"/>
     <sheet name="balance_Moderate" sheetId="2" r:id="rId2"/>
     <sheet name="balance_Complex" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="JOIN" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="119">
   <si>
     <t>Nodes</t>
   </si>
@@ -295,12 +296,105 @@
   <si>
     <t>crosstab HM</t>
   </si>
+  <si>
+    <t>script_name</t>
+  </si>
+  <si>
+    <t>test_id</t>
+  </si>
+  <si>
+    <t>m_u_tuple_count</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>total_score</t>
+  </si>
+  <si>
+    <t>tarantular_hm</t>
+  </si>
+  <si>
+    <t>ochihai_hm</t>
+  </si>
+  <si>
+    <t>kulczynski2_hm</t>
+  </si>
+  <si>
+    <t>naish2_hm</t>
+  </si>
+  <si>
+    <t>wong1_hm</t>
+  </si>
+  <si>
+    <t>sober_hm</t>
+  </si>
+  <si>
+    <t>liblit_hm</t>
+  </si>
+  <si>
+    <t>mw_hm</t>
+  </si>
+  <si>
+    <t>crosstab_hm</t>
+  </si>
+  <si>
+    <t>tarantular_duration</t>
+  </si>
+  <si>
+    <t>total_test_cnt</t>
+  </si>
+  <si>
+    <t>balance_js4</t>
+  </si>
+  <si>
+    <t>balance_jm3</t>
+  </si>
+  <si>
+    <t>balance_jc1</t>
+  </si>
+  <si>
+    <t>balance_jm2</t>
+  </si>
+  <si>
+    <t>balance_js5</t>
+  </si>
+  <si>
+    <t>balance_js2</t>
+  </si>
+  <si>
+    <t>balance_jm5</t>
+  </si>
+  <si>
+    <t>balance_jm4</t>
+  </si>
+  <si>
+    <t>balance_js3</t>
+  </si>
+  <si>
+    <t>balance_jc4</t>
+  </si>
+  <si>
+    <t>balance_js1</t>
+  </si>
+  <si>
+    <t>balance_jc5</t>
+  </si>
+  <si>
+    <t>balance_jm1</t>
+  </si>
+  <si>
+    <t>balance_jc2</t>
+  </si>
+  <si>
+    <t>balance_jc3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -446,6 +540,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -713,14 +810,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH67"/>
   <sheetViews>
-    <sheetView topLeftCell="Z19" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="AH51" sqref="AH51:AH55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
@@ -742,7 +839,7 @@
     <col min="29" max="29" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="16" customHeight="1">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -846,7 +943,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" s="2" customFormat="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -956,7 +1053,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" s="2" customFormat="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1066,7 +1163,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" s="2" customFormat="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1176,7 +1273,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1286,7 +1383,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1396,7 +1493,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" s="2" customFormat="1">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1506,7 +1603,7 @@
         <v>0.33333299999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" s="1" customFormat="1">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1616,7 +1713,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" s="1" customFormat="1">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1726,7 +1823,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" s="2" customFormat="1">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -1836,7 +1933,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" s="2" customFormat="1">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -1946,7 +2043,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" s="2" customFormat="1">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -2056,7 +2153,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" s="2" customFormat="1">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -2166,7 +2263,7 @@
         <v>0.33333299999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34">
       <c r="A14">
         <v>5</v>
       </c>
@@ -2276,7 +2373,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34">
       <c r="A15">
         <v>5</v>
       </c>
@@ -2386,7 +2483,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34">
       <c r="A16">
         <v>5</v>
       </c>
@@ -2496,7 +2593,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34">
       <c r="F17" s="8" t="s">
         <v>30</v>
       </c>
@@ -2534,7 +2631,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34">
       <c r="F18" s="8">
         <f>AVERAGE(F2:F16)</f>
         <v>16</v>
@@ -2584,7 +2681,7 @@
         <v>0.61777777777777776</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34">
       <c r="F19" s="8" t="s">
         <v>27</v>
       </c>
@@ -2622,7 +2719,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34">
       <c r="F20" s="8">
         <f>STDEV(F2:F16)</f>
         <v>48.407496467858302</v>
@@ -2672,51 +2769,51 @@
         <v>0.2312377552885766</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34">
       <c r="G21" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34">
       <c r="G22" s="8">
         <f>AVERAGEIF(Z2:Z16,0,G2:G16)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34">
       <c r="G23" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34">
       <c r="G24" s="8">
         <f t="array" ref="G24">_xlfn.STDEV.S(IF(Z2:Z16=0,G2:G16))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34">
       <c r="G25" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34">
       <c r="G26" s="8">
         <f>AVERAGEIF(Z2:Z16,1,G2:G16)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34">
       <c r="G27" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34">
       <c r="G28" s="8">
         <f t="array" ref="G28">_xlfn.STDEV.S(IF(Z2:Z16=1,G2:G16))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" s="2" customFormat="1">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -2826,7 +2923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" s="2" customFormat="1">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -2930,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34">
       <c r="A31">
         <v>2</v>
       </c>
@@ -3040,7 +3137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34">
       <c r="A32">
         <v>2</v>
       </c>
@@ -3144,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3254,7 +3351,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34">
       <c r="A34">
         <v>3</v>
       </c>
@@ -3358,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" s="2" customFormat="1">
       <c r="A35" s="2">
         <v>4</v>
       </c>
@@ -3468,7 +3565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" s="3" customFormat="1">
       <c r="A36" s="3">
         <v>4</v>
       </c>
@@ -3572,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34">
       <c r="A37">
         <v>5</v>
       </c>
@@ -3682,7 +3779,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" s="1" customFormat="1">
       <c r="A38" s="1">
         <v>5</v>
       </c>
@@ -3786,73 +3883,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34">
       <c r="G39" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34">
       <c r="G40" s="8">
         <f>AVERAGE(G29:G38)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34">
       <c r="G41" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34">
       <c r="G42" s="8">
         <f>STDEV(G29:G38)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34">
       <c r="G43" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34">
       <c r="G44" s="8">
         <f>AVERAGEIF(Z29:Z38,0,G29:G38)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34">
       <c r="G45" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34">
       <c r="G46" s="8">
         <f t="array" ref="G46">_xlfn.STDEV.S(IF(Z29:Z38=0,G29:G38))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34">
       <c r="G47" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34">
       <c r="G48" s="8">
         <f>AVERAGEIF(Z29:Z38,1,G29:G38)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34">
       <c r="G49" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34">
       <c r="G50" s="8">
         <f t="array" ref="G50">_xlfn.STDEV.S(IF(Z29:Z38=1,G29:G38))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" s="2" customFormat="1">
       <c r="A51" s="2">
         <v>1</v>
       </c>
@@ -3939,7 +4036,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34">
       <c r="A52">
         <v>2</v>
       </c>
@@ -4026,7 +4123,7 @@
         <v>0.53333299999999995</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34">
       <c r="A53">
         <v>3</v>
       </c>
@@ -4113,7 +4210,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="54" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" s="2" customFormat="1">
       <c r="A54" s="2">
         <v>4</v>
       </c>
@@ -4200,7 +4297,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34">
       <c r="A55">
         <v>5</v>
       </c>
@@ -4287,7 +4384,7 @@
         <v>0.5333</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34">
       <c r="G56" s="8" t="s">
         <v>30</v>
       </c>
@@ -4340,7 +4437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34">
       <c r="G57" s="8">
         <f>AVERAGE(G51:G55)</f>
         <v>1</v>
@@ -4394,7 +4491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34">
       <c r="G58" s="8" t="s">
         <v>27</v>
       </c>
@@ -4443,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34">
       <c r="G59" s="8">
         <f>STDEV(G51:G55)</f>
         <v>0</v>
@@ -4497,7 +4594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34">
       <c r="G60" s="8" t="s">
         <v>39</v>
       </c>
@@ -4550,7 +4647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34">
       <c r="G61" s="8">
         <f>AVERAGEIF(Z46:Z55,0,G46:G55)</f>
         <v>1</v>
@@ -4580,7 +4677,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34">
       <c r="A62" s="2" t="s">
         <v>34</v>
       </c>
@@ -4612,7 +4709,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34">
       <c r="A63" s="2" t="s">
         <v>35</v>
       </c>
@@ -4645,7 +4742,7 @@
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34">
       <c r="G64" s="8" t="s">
         <v>40</v>
       </c>
@@ -4674,7 +4771,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="65" spans="7:32" x14ac:dyDescent="0.2">
+    <row r="65" spans="7:32">
       <c r="G65" s="8">
         <f>AVERAGEIF(Z46:Z55,1,G46:G55)</f>
         <v>1</v>
@@ -4704,12 +4801,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="66" spans="7:32" x14ac:dyDescent="0.2">
+    <row r="66" spans="7:32">
       <c r="G66" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="7:32" x14ac:dyDescent="0.2">
+    <row r="67" spans="7:32">
       <c r="G67" s="8" t="e">
         <f t="array" ref="G67">_xlfn.STDEV.S(IF(Z46:Z55=1,G46:G55))</f>
         <v>#DIV/0!</v>
@@ -4722,14 +4819,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH63"/>
   <sheetViews>
     <sheetView topLeftCell="T21" workbookViewId="0">
       <selection activeCell="AH51" sqref="AH51:AH55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="8"/>
@@ -4748,7 +4845,7 @@
     <col min="27" max="27" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="16" customHeight="1">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -4852,7 +4949,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4962,7 +5059,7 @@
         <v>0.33333299999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5072,7 +5169,7 @@
         <v>0.33333299999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5182,7 +5279,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5292,7 +5389,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34">
       <c r="A6">
         <v>2</v>
       </c>
@@ -5402,7 +5499,7 @@
         <v>0.28571400000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34">
       <c r="A7">
         <v>2</v>
       </c>
@@ -5512,7 +5609,7 @@
         <v>0.28571400000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34">
       <c r="A8">
         <v>3</v>
       </c>
@@ -5622,7 +5719,7 @@
         <v>0.222222</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34">
       <c r="A9">
         <v>3</v>
       </c>
@@ -5732,7 +5829,7 @@
         <v>0.22220000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34">
       <c r="A10">
         <v>3</v>
       </c>
@@ -5842,7 +5939,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" s="2" customFormat="1">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -5952,7 +6049,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" s="2" customFormat="1">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -6062,7 +6159,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" s="2" customFormat="1">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -6172,7 +6269,7 @@
         <v>0.222222</v>
       </c>
     </row>
-    <row r="14" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" s="2" customFormat="1">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -6282,7 +6379,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" s="2" customFormat="1">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -6392,7 +6489,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" s="2" customFormat="1">
       <c r="A16" s="2">
         <v>5</v>
       </c>
@@ -6502,7 +6599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34">
       <c r="F17" s="8" t="s">
         <v>30</v>
       </c>
@@ -6547,7 +6644,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34">
       <c r="F18" s="8">
         <f>AVERAGE(F2:F16)</f>
         <v>5.666666666666667</v>
@@ -6604,7 +6701,7 @@
         <v>0.5249206349206349</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34">
       <c r="F19" s="8" t="s">
         <v>27</v>
       </c>
@@ -6649,7 +6746,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34">
       <c r="F20" s="8">
         <f>STDEV(F2:F16)</f>
         <v>5.7528460865243121</v>
@@ -6706,31 +6803,31 @@
         <v>0.27571632221509285</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34">
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34">
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34">
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34">
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34">
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34">
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34">
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34">
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34">
       <c r="A29">
         <v>1</v>
       </c>
@@ -6840,7 +6937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34">
       <c r="A30">
         <v>1</v>
       </c>
@@ -6944,7 +7041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34">
       <c r="A31">
         <v>2</v>
       </c>
@@ -7054,7 +7151,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34">
       <c r="A32">
         <v>2</v>
       </c>
@@ -7158,7 +7255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34">
       <c r="A33">
         <v>3</v>
       </c>
@@ -7268,7 +7365,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34">
       <c r="A34">
         <v>3</v>
       </c>
@@ -7372,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" s="2" customFormat="1">
       <c r="A35" s="2">
         <v>4</v>
       </c>
@@ -7482,7 +7579,7 @@
         <v>0.222222</v>
       </c>
     </row>
-    <row r="36" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" s="2" customFormat="1">
       <c r="A36" s="2">
         <v>4</v>
       </c>
@@ -7586,7 +7683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" s="2" customFormat="1">
       <c r="A37" s="2">
         <v>5</v>
       </c>
@@ -7696,7 +7793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" s="2" customFormat="1">
       <c r="A38" s="2">
         <v>5</v>
       </c>
@@ -7800,7 +7897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34">
       <c r="G39" s="16" t="s">
         <v>30</v>
       </c>
@@ -7819,7 +7916,7 @@
       <c r="U39" s="24"/>
       <c r="V39" s="1"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34">
       <c r="G40" s="16">
         <f>AVERAGE(G29:G38)</f>
         <v>1</v>
@@ -7841,7 +7938,7 @@
       <c r="U40" s="24"/>
       <c r="V40" s="1"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34">
       <c r="G41" s="16" t="s">
         <v>27</v>
       </c>
@@ -7860,7 +7957,7 @@
       <c r="U41" s="24"/>
       <c r="V41" s="1"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34">
       <c r="G42" s="16">
         <f>STDEV(G29:G38)</f>
         <v>0</v>
@@ -7882,31 +7979,31 @@
       <c r="U42" s="24"/>
       <c r="V42" s="1"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34">
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34">
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34">
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34">
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34">
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34">
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34">
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34">
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34">
       <c r="A51">
         <v>1</v>
       </c>
@@ -7995,7 +8092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34">
       <c r="A52">
         <v>2</v>
       </c>
@@ -8082,7 +8179,7 @@
         <v>0.30952400000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34">
       <c r="A53">
         <v>3</v>
       </c>
@@ -8169,7 +8266,7 @@
         <v>0.23611099999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" s="2" customFormat="1">
       <c r="A54" s="2">
         <v>4</v>
       </c>
@@ -8255,7 +8352,7 @@
         <v>0.421429</v>
       </c>
     </row>
-    <row r="55" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" s="2" customFormat="1">
       <c r="A55" s="2">
         <v>5</v>
       </c>
@@ -8343,7 +8440,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34">
       <c r="G56" s="8" t="s">
         <v>30</v>
       </c>
@@ -8402,7 +8499,7 @@
         <v>0.30952380952380953</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34">
       <c r="G57" s="8">
         <f>AVERAGE(G51:G55)</f>
         <v>0.96</v>
@@ -8464,7 +8561,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34">
       <c r="G58" s="8" t="s">
         <v>27</v>
       </c>
@@ -8523,7 +8620,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34">
       <c r="G59" s="8">
         <f>STDEV(G51:G55)</f>
         <v>8.9442719099991574E-2</v>
@@ -8585,7 +8682,7 @@
         <v>0.39285714285714285</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34">
       <c r="P60" s="18" t="str">
         <f>RIGHT(P52,LEN(P52) -FIND(",", P52))</f>
         <v>4</v>
@@ -8611,7 +8708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34">
       <c r="P61" s="18" t="str">
         <f t="shared" ref="P61:U61" si="24">RIGHT(P53,LEN(P53) -FIND(",", P53))</f>
         <v>6</v>
@@ -8637,7 +8734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34">
       <c r="A62" s="2" t="s">
         <v>34</v>
       </c>
@@ -8660,7 +8757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34">
       <c r="A63" s="2" t="s">
         <v>36</v>
       </c>
@@ -8696,14 +8793,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH59"/>
   <sheetViews>
     <sheetView topLeftCell="U14" workbookViewId="0">
       <selection activeCell="AH51" sqref="AH51:AH55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="17.1640625" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
@@ -8720,7 +8817,7 @@
     <col min="27" max="27" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -8824,7 +8921,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8934,7 +9031,7 @@
         <v>0.28571400000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9044,7 +9141,7 @@
         <v>0.18181800000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" s="1" customFormat="1">
       <c r="A4">
         <v>1</v>
       </c>
@@ -9154,7 +9251,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34">
       <c r="A5">
         <v>2</v>
       </c>
@@ -9263,7 +9360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34">
       <c r="A6">
         <v>2</v>
       </c>
@@ -9373,7 +9470,7 @@
         <v>0.18181800000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" s="2" customFormat="1">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -9483,7 +9580,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34">
       <c r="A8">
         <v>3</v>
       </c>
@@ -9593,7 +9690,7 @@
         <v>0.18181800000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34">
       <c r="A9">
         <v>3</v>
       </c>
@@ -9703,7 +9800,7 @@
         <v>0.18181800000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34">
       <c r="A10">
         <v>3</v>
       </c>
@@ -9813,7 +9910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34">
       <c r="A11">
         <v>4</v>
       </c>
@@ -9923,7 +10020,7 @@
         <v>0.14285700000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34">
       <c r="A12">
         <v>4</v>
       </c>
@@ -10033,7 +10130,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" ht="25" customHeight="1">
       <c r="A13">
         <v>4</v>
       </c>
@@ -10143,7 +10240,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34">
       <c r="A14">
         <v>5</v>
       </c>
@@ -10253,7 +10350,7 @@
         <v>0.15384600000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34">
       <c r="A15">
         <v>5</v>
       </c>
@@ -10363,7 +10460,7 @@
         <v>0.15379999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34">
       <c r="A16">
         <v>5</v>
       </c>
@@ -10473,7 +10570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34">
       <c r="F17" s="8" t="s">
         <v>30</v>
       </c>
@@ -10512,7 +10609,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34">
       <c r="F18" s="8">
         <f>AVERAGE(F2:F16)</f>
         <v>1.8</v>
@@ -10567,7 +10664,7 @@
         <v>9.1333333333333322E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34">
       <c r="F19" s="8" t="s">
         <v>27</v>
       </c>
@@ -10606,7 +10703,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34">
       <c r="F20" s="8">
         <f>STDEV(F2:F16)</f>
         <v>3.0983866769659336</v>
@@ -10661,31 +10758,31 @@
         <v>0.20938231152834375</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34">
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34">
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34">
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34">
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34">
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34">
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34">
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34">
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34">
       <c r="A29">
         <v>1</v>
       </c>
@@ -10795,7 +10892,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34">
       <c r="A30">
         <v>1</v>
       </c>
@@ -10899,7 +10996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34">
       <c r="A31">
         <v>2</v>
       </c>
@@ -11009,7 +11106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34">
       <c r="A32">
         <v>2</v>
       </c>
@@ -11113,7 +11210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34">
       <c r="A33">
         <v>3</v>
       </c>
@@ -11223,7 +11320,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34">
       <c r="A34">
         <v>3</v>
       </c>
@@ -11327,7 +11424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34">
       <c r="A35">
         <v>4</v>
       </c>
@@ -11437,7 +11534,7 @@
         <v>7.6923099999999994E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34">
       <c r="A36">
         <v>4</v>
       </c>
@@ -11541,7 +11638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34">
       <c r="A37">
         <v>5</v>
       </c>
@@ -11651,7 +11748,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34">
       <c r="A38">
         <v>5</v>
       </c>
@@ -11755,7 +11852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34">
       <c r="G39" s="8" t="s">
         <v>30</v>
       </c>
@@ -11784,7 +11881,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34">
       <c r="G40" s="8">
         <f>AVERAGE(G29:G38)</f>
         <v>0.93330000000000002</v>
@@ -11798,7 +11895,7 @@
         <v>0.93300000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34">
       <c r="G41" s="8" t="s">
         <v>27</v>
       </c>
@@ -11827,7 +11924,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34">
       <c r="G42" s="8">
         <f>STDEV(G29:G38)</f>
         <v>0.21092391993323106</v>
@@ -11841,25 +11938,25 @@
         <v>0.21187260323128129</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34">
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34">
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34">
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34">
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34">
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34">
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34">
       <c r="Z49" s="1"/>
       <c r="AA49" t="str">
         <f>LEFT(P51,FIND(",", P51)-1)</f>
@@ -11886,7 +11983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34">
       <c r="Z50" s="1"/>
       <c r="AA50" t="str">
         <f>RIGHT(P51,LEN(P51) -FIND(",", P51))</f>
@@ -11913,7 +12010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1">
       <c r="A51">
         <v>1</v>
       </c>
@@ -12023,7 +12120,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34">
       <c r="A52">
         <v>2</v>
       </c>
@@ -12133,7 +12230,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" s="2" customFormat="1">
       <c r="A53" s="2">
         <v>3</v>
       </c>
@@ -12243,7 +12340,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="54" spans="1:34" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A54" s="2">
         <v>4</v>
       </c>
@@ -12353,7 +12450,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:34" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" ht="25" customHeight="1">
       <c r="A55">
         <v>5</v>
       </c>
@@ -12463,7 +12560,7 @@
         <v>8.3333299999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34">
       <c r="G56" s="8" t="s">
         <v>30</v>
       </c>
@@ -12475,7 +12572,7 @@
       </c>
       <c r="AA56" s="26"/>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34">
       <c r="G57" s="8">
         <f>AVERAGE(G51:G55)</f>
         <v>0.91554000000000002</v>
@@ -12489,7 +12586,7 @@
         <v>0.93333999999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34">
       <c r="G58" s="8" t="s">
         <v>27</v>
       </c>
@@ -12500,7 +12597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34">
       <c r="G59" s="8">
         <f>STDEV(G51:G55)</f>
         <v>0.18885830137963233</v>
@@ -12521,16 +12618,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="O90" sqref="O90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -12559,7 +12656,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12588,7 +12685,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>0.66666666666666663</v>
       </c>
@@ -12617,7 +12714,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>0.33333333333333337</v>
       </c>
@@ -12646,7 +12743,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1</v>
       </c>
@@ -12675,7 +12772,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>0.66666666666666663</v>
       </c>
@@ -12704,7 +12801,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>0.33333333333333337</v>
       </c>
@@ -12733,7 +12830,7 @@
         <v>0.33333299999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>0.4</v>
       </c>
@@ -12762,7 +12859,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>1</v>
       </c>
@@ -12791,7 +12888,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>0.5</v>
       </c>
@@ -12820,7 +12917,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>1</v>
       </c>
@@ -12849,7 +12946,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>1</v>
       </c>
@@ -12878,7 +12975,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>1</v>
       </c>
@@ -12907,7 +13004,7 @@
         <v>0.33333299999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>1</v>
       </c>
@@ -12936,7 +13033,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>1</v>
       </c>
@@ -12965,7 +13062,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>0.5</v>
       </c>
@@ -12994,7 +13091,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>0.4</v>
       </c>
@@ -13023,7 +13120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>0</v>
       </c>
@@ -13052,7 +13149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>0.4</v>
       </c>
@@ -13081,7 +13178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>0</v>
       </c>
@@ -13110,7 +13207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>0.5</v>
       </c>
@@ -13139,7 +13236,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>0</v>
       </c>
@@ -13168,7 +13265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>0.4</v>
       </c>
@@ -13197,7 +13294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>0</v>
       </c>
@@ -13226,7 +13323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>0.66666666666666663</v>
       </c>
@@ -13255,7 +13352,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>0</v>
       </c>
@@ -13284,7 +13381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>0.83333333333333337</v>
       </c>
@@ -13313,7 +13410,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>0.83333333333333337</v>
       </c>
@@ -13342,7 +13439,7 @@
         <v>0.53333299999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>0.45</v>
       </c>
@@ -13371,7 +13468,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>0.83333333333333337</v>
       </c>
@@ -13400,7 +13497,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>0.75</v>
       </c>
@@ -13429,7 +13526,7 @@
         <v>0.5333</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>1</v>
       </c>
@@ -13458,7 +13555,7 @@
         <v>0.33333299999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>1</v>
       </c>
@@ -13487,7 +13584,7 @@
         <v>0.33333299999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>0.25</v>
       </c>
@@ -13516,7 +13613,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>1</v>
       </c>
@@ -13545,7 +13642,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>0.33333333333333337</v>
       </c>
@@ -13574,7 +13671,7 @@
         <v>0.28571400000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>0.33333333333333337</v>
       </c>
@@ -13603,7 +13700,7 @@
         <v>0.28571400000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>1</v>
       </c>
@@ -13632,7 +13729,7 @@
         <v>0.222222</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>1</v>
       </c>
@@ -13661,7 +13758,7 @@
         <v>0.22220000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>0.4</v>
       </c>
@@ -13690,7 +13787,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>1</v>
       </c>
@@ -13719,7 +13816,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>0.5</v>
       </c>
@@ -13748,7 +13845,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>0.25</v>
       </c>
@@ -13777,7 +13874,7 @@
         <v>0.222222</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>1</v>
       </c>
@@ -13806,7 +13903,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>0.66666666666666663</v>
       </c>
@@ -13835,7 +13932,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>0.66666666666666663</v>
       </c>
@@ -13864,7 +13961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>0.2857142857142857</v>
       </c>
@@ -13893,7 +13990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>0</v>
       </c>
@@ -13922,7 +14019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>0.33333333333333337</v>
       </c>
@@ -13951,7 +14048,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>0</v>
       </c>
@@ -13980,7 +14077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>0.2857142857142857</v>
       </c>
@@ -14009,7 +14106,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>0</v>
       </c>
@@ -14038,7 +14135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>0.2857142857142857</v>
       </c>
@@ -14067,7 +14164,7 @@
         <v>0.222222</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>0</v>
       </c>
@@ -14096,7 +14193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>0.25</v>
       </c>
@@ -14125,7 +14222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>0</v>
       </c>
@@ -14154,7 +14251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="19">
         <v>0</v>
       </c>
@@ -14183,7 +14280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>0.7</v>
       </c>
@@ -14212,7 +14309,7 @@
         <v>0.30952400000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>0.34285714285714286</v>
       </c>
@@ -14241,7 +14338,7 @@
         <v>0.23611099999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>0.83333333333333337</v>
       </c>
@@ -14270,7 +14367,7 @@
         <v>0.421429</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>0.30952380952380953</v>
       </c>
@@ -14299,7 +14396,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>0.33333333333333337</v>
       </c>
@@ -14328,7 +14425,7 @@
         <v>0.28571400000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>0.5</v>
       </c>
@@ -14357,7 +14454,7 @@
         <v>0.18181800000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>0.4</v>
       </c>
@@ -14386,7 +14483,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>0.18181818181818182</v>
       </c>
@@ -14415,7 +14512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>1</v>
       </c>
@@ -14444,7 +14541,7 @@
         <v>0.18181800000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>0.5</v>
       </c>
@@ -14473,7 +14570,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>1</v>
       </c>
@@ -14502,7 +14599,7 @@
         <v>0.18181800000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>1</v>
       </c>
@@ -14531,7 +14628,7 @@
         <v>0.18181800000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>1</v>
       </c>
@@ -14560,7 +14657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>1</v>
       </c>
@@ -14589,7 +14686,7 @@
         <v>0.14285700000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>0.15384615384615385</v>
       </c>
@@ -14618,7 +14715,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>0.18181818181818182</v>
       </c>
@@ -14647,7 +14744,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>1</v>
       </c>
@@ -14676,7 +14773,7 @@
         <v>0.15384600000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>1</v>
       </c>
@@ -14705,7 +14802,7 @@
         <v>0.15379999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>0.15384615384615385</v>
       </c>
@@ -14734,7 +14831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>0.22222222222222221</v>
       </c>
@@ -14763,7 +14860,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>0</v>
       </c>
@@ -14792,7 +14889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>0.18181818181818182</v>
       </c>
@@ -14821,7 +14918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>0</v>
       </c>
@@ -14850,7 +14947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>0.2857142857142857</v>
       </c>
@@ -14879,7 +14976,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>0</v>
       </c>
@@ -14908,7 +15005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>0.16666666666666669</v>
       </c>
@@ -14937,7 +15034,7 @@
         <v>7.6923099999999994E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>0</v>
       </c>
@@ -14966,7 +15063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>0.33333333333333337</v>
       </c>
@@ -14995,7 +15092,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>0</v>
       </c>
@@ -15024,7 +15121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>0.31111111111111112</v>
       </c>
@@ -15053,7 +15150,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>9.9999999999999992E-2</v>
       </c>
@@ -15082,7 +15179,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>0.1111111111111111</v>
       </c>
@@ -15111,7 +15208,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>0.5</v>
       </c>
@@ -15140,7 +15237,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>0.33333333333333331</v>
       </c>
@@ -15169,7 +15266,7 @@
         <v>8.3333299999999999E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>84</v>
       </c>
@@ -15195,7 +15292,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9">
       <c r="A93">
         <f>AVERAGE(A2:A91)</f>
         <v>0.4826981043647709</v>
@@ -15233,7 +15330,7 @@
         <v>0.35449818222222218</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>27</v>
       </c>
@@ -15259,7 +15356,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9">
       <c r="A95">
         <f>STDEV(A2:A91)</f>
         <v>0.36649434353691002</v>
@@ -15295,6 +15392,3694 @@
       <c r="I95" s="4">
         <f t="shared" si="1"/>
         <v>0.29599083274494542</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C42E53-A9EA-1F48-8D32-93F5B284019C}">
+  <dimension ref="A1:P74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>25</v>
+      </c>
+      <c r="P2">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1412</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1412</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>780</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>780</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.5</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>780</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>780</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0.5</v>
+      </c>
+      <c r="L5">
+        <v>0.25</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.25</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>25</v>
+      </c>
+      <c r="P6">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1238</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1238</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.4</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1004</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1004</v>
+      </c>
+      <c r="F8">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.5</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1004</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1004</v>
+      </c>
+      <c r="F9">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.5</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>28</v>
+      </c>
+      <c r="P10">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1406</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1406</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>774</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>774</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.28571400000000002</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.28571400000000002</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>774</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>774</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
+      </c>
+      <c r="H13">
+        <v>0.5</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0.5</v>
+      </c>
+      <c r="L13">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>24</v>
+      </c>
+      <c r="P14">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1004</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1004</v>
+      </c>
+      <c r="F15">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G15">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1004</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1004</v>
+      </c>
+      <c r="F16">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G16">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>1004</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1004</v>
+      </c>
+      <c r="F17">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="G17">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.5</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>30</v>
+      </c>
+      <c r="P18">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1412</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1412</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>780</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>780</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.5</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>780</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>780</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.5</v>
+      </c>
+      <c r="H21">
+        <v>0.5</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0.5</v>
+      </c>
+      <c r="L21">
+        <v>0.25</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.25</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>34</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>34</v>
+      </c>
+      <c r="P22">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1674</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1674</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>976</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>976</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.5</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.5</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>976</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>976</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.5</v>
+      </c>
+      <c r="H25">
+        <v>0.5</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0.5</v>
+      </c>
+      <c r="L25">
+        <v>0.25</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.25</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>27</v>
+      </c>
+      <c r="P26">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1406</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1406</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.4</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0.4</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>774</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>774</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>1406</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1406</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>0.5</v>
+      </c>
+      <c r="H29">
+        <v>0.5</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0.5</v>
+      </c>
+      <c r="L29">
+        <v>0.2</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0.2</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>31</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>31</v>
+      </c>
+      <c r="P30">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1050</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1050</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.4</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0.4</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>995</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>995</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>1004</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1004</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>0.5</v>
+      </c>
+      <c r="H33">
+        <v>0.5</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>26</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>26</v>
+      </c>
+      <c r="P34">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1019</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1019</v>
+      </c>
+      <c r="F35">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G35">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H35">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>1019</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1019</v>
+      </c>
+      <c r="F36">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G36">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H36">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>1019</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1019</v>
+      </c>
+      <c r="F37">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="G37">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="H37">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>28</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>28</v>
+      </c>
+      <c r="P38">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1056</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1056</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="L39">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M39">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="N39">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>1003</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1003</v>
+      </c>
+      <c r="F40">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G40">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H40">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0.28571400000000002</v>
+      </c>
+      <c r="L40">
+        <v>0.28571400000000002</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0.28571400000000002</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>1056</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1056</v>
+      </c>
+      <c r="F41">
+        <v>0.5</v>
+      </c>
+      <c r="G41">
+        <v>0.5</v>
+      </c>
+      <c r="H41">
+        <v>0.5</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="L41">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="M41">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="N41">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>26</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>26</v>
+      </c>
+      <c r="P42">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1412</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1412</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>780</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>780</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>0.5</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0.5</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>780</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>780</v>
+      </c>
+      <c r="F45">
+        <v>0.5</v>
+      </c>
+      <c r="G45">
+        <v>0.5</v>
+      </c>
+      <c r="H45">
+        <v>0.5</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0.5</v>
+      </c>
+      <c r="L45">
+        <v>0.25</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0.25</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>28</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>28</v>
+      </c>
+      <c r="P46">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1101</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1101</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="L47">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="M47">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="N47">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>966</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>966</v>
+      </c>
+      <c r="F48">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G48">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H48">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0.28571400000000002</v>
+      </c>
+      <c r="L48">
+        <v>0.28571400000000002</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0.28571400000000002</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>966</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>966</v>
+      </c>
+      <c r="F49">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="G49">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="H49">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="L49">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>1406</v>
+      </c>
+      <c r="D50">
+        <v>24</v>
+      </c>
+      <c r="E50">
+        <v>1406</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>0.4</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0.4</v>
+      </c>
+      <c r="O50">
+        <v>24</v>
+      </c>
+      <c r="P50">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>26</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>26</v>
+      </c>
+      <c r="P51">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1004</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1004</v>
+      </c>
+      <c r="F52">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G52">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H52">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>1004</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1004</v>
+      </c>
+      <c r="F53">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G53">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H53">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>1004</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1004</v>
+      </c>
+      <c r="F54">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="G54">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="H54">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>27</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>27</v>
+      </c>
+      <c r="P55">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1238</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1238</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>1004</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1004</v>
+      </c>
+      <c r="F57">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G57">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H57">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0.5</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>1004</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1004</v>
+      </c>
+      <c r="F58">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="G58">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="H58">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0.25</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>780</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>780</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>1004</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1004</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>774</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>774</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>2</v>
+      </c>
+      <c r="P61">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>1004</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1004</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>780</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>780</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>976</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>976</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>1406</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1406</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>1004</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1004</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" t="s">
+        <v>112</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>1019</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1019</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>1056</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1056</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>780</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>780</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>966</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>966</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>1004</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1004</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" t="s">
+        <v>118</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>1004</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1004</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" t="s">
+        <v>84</v>
+      </c>
+      <c r="F73">
+        <v>0.446009408</v>
+      </c>
+      <c r="G73">
+        <v>0.446009408</v>
+      </c>
+      <c r="H73">
+        <v>0.446009408</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0.27531856300000002</v>
+      </c>
+      <c r="L73">
+        <v>0.268209268</v>
+      </c>
+      <c r="M73">
+        <v>1.1737085E-2</v>
+      </c>
+      <c r="N73">
+        <v>0.26562708499999999</v>
+      </c>
+      <c r="O73">
+        <v>6.549295775</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74">
+        <v>0.41382332900000002</v>
+      </c>
+      <c r="G74">
+        <v>0.41382332900000002</v>
+      </c>
+      <c r="H74">
+        <v>0.41382332900000002</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0.40623446200000002</v>
+      </c>
+      <c r="L74">
+        <v>0.26059829000000001</v>
+      </c>
+      <c r="M74">
+        <v>5.8580685E-2</v>
+      </c>
+      <c r="N74">
+        <v>0.27578901700000003</v>
+      </c>
+      <c r="O74">
+        <v>10.870390629999999</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_results/balance.xlsx
+++ b/experiment_results/balance.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yguo/RubymineProjects/altar/experiment_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1124149-17AB-234D-969E-E99CA63A3C91}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50300" yWindow="5620" windowWidth="26200" windowHeight="20600" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26200" windowHeight="16580" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="balance_Simple" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="121">
   <si>
     <t>Nodes</t>
   </si>
@@ -388,6 +389,12 @@
   </si>
   <si>
     <t>balance_jc3</t>
+  </si>
+  <si>
+    <t>mw_duration</t>
+  </si>
+  <si>
+    <t>STD</t>
   </si>
 </sst>
 </file>
@@ -15401,10 +15408,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C42E53-A9EA-1F48-8D32-93F5B284019C}">
-  <dimension ref="A1:P74"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15412,7 +15419,7 @@
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -15459,10 +15466,13 @@
         <v>102</v>
       </c>
       <c r="P1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -15470,13 +15480,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1974</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1974</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -15506,13 +15516,16 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -15520,22 +15533,22 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1412</v>
+        <v>2665</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>1412</v>
+        <v>2665</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -15544,25 +15557,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="L3">
         <v>0.66666700000000001</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="N3">
-        <v>0.66666700000000001</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -15570,22 +15586,22 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>780</v>
+        <v>2194</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>780</v>
+        <v>2194</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -15600,19 +15616,22 @@
         <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -15620,22 +15639,22 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>780</v>
+        <v>2754</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>780</v>
+        <v>2754</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="G5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -15650,7 +15669,7 @@
         <v>0.25</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N5">
         <v>0.25</v>
@@ -15659,10 +15678,13 @@
         <v>1</v>
       </c>
       <c r="P5">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -15670,13 +15692,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1092</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1092</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -15706,13 +15728,16 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="P6">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -15759,10 +15784,13 @@
         <v>1</v>
       </c>
       <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
         <v>1338</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -15809,10 +15837,13 @@
         <v>1</v>
       </c>
       <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
         <v>1104</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>105</v>
       </c>
@@ -15820,22 +15851,22 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>1004</v>
+        <v>2125</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>1004</v>
+        <v>2125</v>
       </c>
       <c r="F9">
-        <v>0.33333299999999999</v>
+        <v>0.2</v>
       </c>
       <c r="G9">
-        <v>0.33333299999999999</v>
+        <v>0.2</v>
       </c>
       <c r="H9">
-        <v>0.33333299999999999</v>
+        <v>0.2</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -15859,10 +15890,13 @@
         <v>1</v>
       </c>
       <c r="P9">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>106</v>
       </c>
@@ -15870,13 +15904,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -15906,13 +15940,16 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="P10">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -15923,7 +15960,7 @@
         <v>1406</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>1406</v>
@@ -15956,13 +15993,16 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
         <v>1736</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -15973,7 +16013,7 @@
         <v>774</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>774</v>
@@ -16006,13 +16046,16 @@
         <v>0.28571400000000002</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
         <v>1104</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -16020,22 +16063,22 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>774</v>
+        <v>1821</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13">
-        <v>774</v>
+        <v>1821</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.14285700000000001</v>
       </c>
       <c r="G13">
-        <v>0.5</v>
+        <v>0.14285700000000001</v>
       </c>
       <c r="H13">
-        <v>0.5</v>
+        <v>0.14285700000000001</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -16050,19 +16093,22 @@
         <v>0.14285700000000001</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N13">
-        <v>0.14285700000000001</v>
+        <v>0.5</v>
       </c>
       <c r="O13">
         <v>2</v>
       </c>
       <c r="P13">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -16070,13 +16116,13 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1042</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1042</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -16106,13 +16152,16 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="P14">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -16159,10 +16208,13 @@
         <v>1</v>
       </c>
       <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
         <v>1104</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>107</v>
       </c>
@@ -16173,7 +16225,7 @@
         <v>1004</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>1004</v>
@@ -16206,13 +16258,16 @@
         <v>0.66666700000000001</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
         <v>1104</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -16220,22 +16275,22 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>1004</v>
+        <v>2125</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1004</v>
+        <v>2125</v>
       </c>
       <c r="F17">
-        <v>0.33333299999999999</v>
+        <v>0.2</v>
       </c>
       <c r="G17">
-        <v>0.33333299999999999</v>
+        <v>0.2</v>
       </c>
       <c r="H17">
-        <v>0.33333299999999999</v>
+        <v>0.2</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -16259,10 +16314,13 @@
         <v>1</v>
       </c>
       <c r="P17">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -16270,13 +16328,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -16306,13 +16364,16 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -16320,13 +16381,13 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>1412</v>
+        <v>2517</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>1412</v>
+        <v>2517</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -16350,19 +16411,22 @@
         <v>0.66666700000000001</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="N19">
         <v>0.66666700000000001</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>108</v>
       </c>
@@ -16370,22 +16434,22 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>780</v>
+        <v>1414</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>780</v>
+        <v>1414</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -16400,19 +16464,22 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N20">
-        <v>0.5</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>108</v>
       </c>
@@ -16420,22 +16487,22 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>780</v>
+        <v>1705</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>780</v>
+        <v>1705</v>
       </c>
       <c r="F21">
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.5</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="H21">
-        <v>0.5</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -16450,19 +16517,22 @@
         <v>0.25</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N21">
         <v>0.25</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>109</v>
       </c>
@@ -16470,13 +16540,13 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1049</v>
       </c>
       <c r="D22">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1049</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -16506,13 +16576,16 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -16559,10 +16632,13 @@
         <v>1</v>
       </c>
       <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
         <v>1817</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>109</v>
       </c>
@@ -16609,10 +16685,13 @@
         <v>1</v>
       </c>
       <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
         <v>1119</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -16620,22 +16699,22 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>976</v>
+        <v>3001</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>976</v>
+        <v>3001</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G25">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H25">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -16650,19 +16729,22 @@
         <v>0.25</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N25">
-        <v>0.25</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="O25">
         <v>1</v>
       </c>
       <c r="P25">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -16670,13 +16752,13 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1042</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1042</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -16706,13 +16788,16 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="P26">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -16720,13 +16805,13 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>1406</v>
+        <v>1419</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>1406</v>
+        <v>1419</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -16744,25 +16829,28 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="L27">
         <v>0.4</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P27">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+        <v>3</v>
+      </c>
+      <c r="Q27">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -16770,22 +16858,22 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>774</v>
+        <v>840</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>774</v>
+        <v>840</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -16794,25 +16882,28 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="L28">
         <v>0.33333299999999999</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>0.33333299999999999</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P28">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q28">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -16820,22 +16911,22 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>1406</v>
+        <v>2448</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>1406</v>
+        <v>2448</v>
       </c>
       <c r="F29">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G29">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H29">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -16850,19 +16941,22 @@
         <v>0.2</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="N29">
         <v>0.2</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P29">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q29">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>111</v>
       </c>
@@ -16870,13 +16964,13 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="D30">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -16906,13 +17000,16 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="P30">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>111</v>
       </c>
@@ -16923,7 +17020,7 @@
         <v>1050</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <v>1050</v>
@@ -16956,13 +17053,16 @@
         <v>0.4</v>
       </c>
       <c r="O31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="Q31">
         <v>1159</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>111</v>
       </c>
@@ -16973,7 +17073,7 @@
         <v>995</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>995</v>
@@ -17006,13 +17106,16 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P32">
+        <v>2</v>
+      </c>
+      <c r="Q32">
         <v>1104</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>111</v>
       </c>
@@ -17020,22 +17123,22 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>1004</v>
+        <v>4076</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>1004</v>
+        <v>4076</v>
       </c>
       <c r="F33">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G33">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H33">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -17059,10 +17162,13 @@
         <v>1</v>
       </c>
       <c r="P33">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>112</v>
       </c>
@@ -17070,13 +17176,13 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1974</v>
       </c>
       <c r="D34">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1974</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -17106,13 +17212,16 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="P34">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>112</v>
       </c>
@@ -17159,10 +17268,13 @@
         <v>1</v>
       </c>
       <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
         <v>1119</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>112</v>
       </c>
@@ -17173,7 +17285,7 @@
         <v>1019</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>1019</v>
@@ -17206,13 +17318,16 @@
         <v>0.66666700000000001</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P36">
+        <v>2</v>
+      </c>
+      <c r="Q36">
         <v>1119</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>112</v>
       </c>
@@ -17220,22 +17335,22 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>1019</v>
+        <v>3087</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>1019</v>
+        <v>3087</v>
       </c>
       <c r="F37">
-        <v>0.33333299999999999</v>
+        <v>0.25</v>
       </c>
       <c r="G37">
-        <v>0.33333299999999999</v>
+        <v>0.25</v>
       </c>
       <c r="H37">
-        <v>0.33333299999999999</v>
+        <v>0.25</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -17253,16 +17368,19 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0.33333299999999999</v>
+        <v>0.5</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P37">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q37">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>113</v>
       </c>
@@ -17270,13 +17388,13 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="D38">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -17306,13 +17424,16 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="P38">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q38">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -17323,7 +17444,7 @@
         <v>1056</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>1056</v>
@@ -17356,13 +17477,16 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P39">
+        <v>2</v>
+      </c>
+      <c r="Q39">
         <v>1157</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>113</v>
       </c>
@@ -17409,10 +17533,13 @@
         <v>1</v>
       </c>
       <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
         <v>1104</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>113</v>
       </c>
@@ -17420,19 +17547,19 @@
         <v>3</v>
       </c>
       <c r="C41">
-        <v>1056</v>
+        <v>2103</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41">
-        <v>1056</v>
+        <v>2103</v>
       </c>
       <c r="F41">
-        <v>0.5</v>
+        <v>0.16666700000000001</v>
       </c>
       <c r="G41">
-        <v>0.5</v>
+        <v>0.16666700000000001</v>
       </c>
       <c r="H41">
         <v>0.5</v>
@@ -17453,16 +17580,19 @@
         <v>0.16666700000000001</v>
       </c>
       <c r="N41">
-        <v>0.16666700000000001</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P41">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q41">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>114</v>
       </c>
@@ -17470,13 +17600,13 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="D42">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -17506,13 +17636,16 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="P42">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>114</v>
       </c>
@@ -17523,7 +17656,7 @@
         <v>1412</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>1412</v>
@@ -17556,13 +17689,16 @@
         <v>0.66666700000000001</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
         <v>1751</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -17609,10 +17745,13 @@
         <v>1</v>
       </c>
       <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
         <v>1119</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>114</v>
       </c>
@@ -17620,13 +17759,13 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <v>780</v>
+        <v>1071</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45">
-        <v>780</v>
+        <v>1071</v>
       </c>
       <c r="F45">
         <v>0.5</v>
@@ -17635,7 +17774,7 @@
         <v>0.5</v>
       </c>
       <c r="H45">
-        <v>0.5</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -17650,7 +17789,7 @@
         <v>0.25</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N45">
         <v>0.25</v>
@@ -17659,10 +17798,13 @@
         <v>1</v>
       </c>
       <c r="P45">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -17670,13 +17812,13 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="D46">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -17706,13 +17848,16 @@
         <v>0</v>
       </c>
       <c r="O46">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="P46">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q46">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>115</v>
       </c>
@@ -17720,19 +17865,19 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>1101</v>
+        <v>1159</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>1101</v>
+        <v>1159</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -17750,19 +17895,22 @@
         <v>0.33333299999999999</v>
       </c>
       <c r="M47">
-        <v>0.33333299999999999</v>
+        <v>1</v>
       </c>
       <c r="N47">
-        <v>0.33333299999999999</v>
+        <v>0</v>
       </c>
       <c r="O47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P47">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
+        <v>3</v>
+      </c>
+      <c r="Q47">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
         <v>115</v>
       </c>
@@ -17770,22 +17918,22 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>966</v>
+        <v>1012</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>966</v>
+        <v>1012</v>
       </c>
       <c r="F48">
-        <v>0.66666700000000001</v>
+        <v>0.28571400000000002</v>
       </c>
       <c r="G48">
-        <v>0.66666700000000001</v>
+        <v>0.28571400000000002</v>
       </c>
       <c r="H48">
-        <v>0.66666700000000001</v>
+        <v>0.28571400000000002</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -17800,19 +17948,22 @@
         <v>0.28571400000000002</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48">
-        <v>0.28571400000000002</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P48">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q48">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
         <v>115</v>
       </c>
@@ -17820,22 +17971,22 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>966</v>
+        <v>1971</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>966</v>
+        <v>1971</v>
       </c>
       <c r="F49">
-        <v>0.33333299999999999</v>
+        <v>0.14285700000000001</v>
       </c>
       <c r="G49">
-        <v>0.33333299999999999</v>
+        <v>0.14285700000000001</v>
       </c>
       <c r="H49">
-        <v>0.33333299999999999</v>
+        <v>0.14285700000000001</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -17844,25 +17995,28 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>0.14285700000000001</v>
+        <v>0.16666700000000001</v>
       </c>
       <c r="L49">
         <v>0.14285700000000001</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>0.14285700000000001</v>
       </c>
       <c r="N49">
-        <v>0.14285700000000001</v>
+        <v>0.5</v>
       </c>
       <c r="O49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P49">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q49">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
         <v>116</v>
       </c>
@@ -17870,172 +18024,181 @@
         <v>0</v>
       </c>
       <c r="C50">
+        <v>1042</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>1042</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>2</v>
+      </c>
+      <c r="P50">
+        <v>2</v>
+      </c>
+      <c r="Q50">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
         <v>1406</v>
       </c>
-      <c r="D50">
-        <v>24</v>
-      </c>
-      <c r="E50">
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
         <v>1406</v>
       </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50">
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
         <v>0.4</v>
       </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
         <v>0.4</v>
       </c>
-      <c r="O50">
-        <v>24</v>
-      </c>
-      <c r="P50">
+      <c r="O51">
+        <v>2</v>
+      </c>
+      <c r="P51">
+        <v>2</v>
+      </c>
+      <c r="Q51">
         <v>1736</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
-      <c r="A51" t="s">
-        <v>117</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>26</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>26</v>
-      </c>
-      <c r="P51">
+    <row r="52" spans="1:17">
+      <c r="A52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>774</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>774</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="O52">
+        <v>2</v>
+      </c>
+      <c r="P52">
+        <v>2</v>
+      </c>
+      <c r="Q52">
         <v>1104</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
-      <c r="A52" t="s">
-        <v>117</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>1004</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>1004</v>
-      </c>
-      <c r="F52">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="G52">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="H52">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>1</v>
-      </c>
-      <c r="P52">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>1004</v>
+        <v>2461</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>1004</v>
+        <v>2461</v>
       </c>
       <c r="F53">
-        <v>0.66666700000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G53">
-        <v>0.66666700000000001</v>
+        <v>0.2</v>
       </c>
       <c r="H53">
-        <v>0.66666700000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -18044,148 +18207,157 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L53">
-        <v>0.66666700000000001</v>
+        <v>0.2</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="N53">
-        <v>0.66666700000000001</v>
+        <v>0.2</v>
       </c>
       <c r="O53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P53">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q53">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
         <v>117</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C54">
+        <v>1005</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>1005</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>2</v>
+      </c>
+      <c r="P54">
+        <v>2</v>
+      </c>
+      <c r="Q54">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
         <v>1004</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
         <v>1004</v>
       </c>
-      <c r="F54">
-        <v>0.33333299999999999</v>
-      </c>
-      <c r="G54">
-        <v>0.33333299999999999</v>
-      </c>
-      <c r="H54">
-        <v>0.33333299999999999</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0.33333299999999999</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0.33333299999999999</v>
-      </c>
-      <c r="O54">
-        <v>1</v>
-      </c>
-      <c r="P54">
+      <c r="F55">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G55">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H55">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>2</v>
+      </c>
+      <c r="P55">
+        <v>2</v>
+      </c>
+      <c r="Q55">
         <v>1104</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
-      <c r="A55" t="s">
-        <v>118</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>27</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>27</v>
-      </c>
-      <c r="P55">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56">
-        <v>1238</v>
+        <v>1004</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56">
-        <v>1238</v>
+        <v>1004</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -18203,51 +18375,54 @@
         <v>0</v>
       </c>
       <c r="N56">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="O56">
+        <v>2</v>
+      </c>
+      <c r="P56">
+        <v>2</v>
+      </c>
+      <c r="Q56">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>2056</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>2056</v>
+      </c>
+      <c r="F57">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="G57">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="H57">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
         <v>0.33333299999999999</v>
-      </c>
-      <c r="O56">
-        <v>1</v>
-      </c>
-      <c r="P56">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
-      <c r="A57" t="s">
-        <v>118</v>
-      </c>
-      <c r="B57">
-        <v>2</v>
-      </c>
-      <c r="C57">
-        <v>1004</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>1004</v>
-      </c>
-      <c r="F57">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="G57">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="H57">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0.66666700000000001</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -18256,118 +18431,127 @@
         <v>0.5</v>
       </c>
       <c r="O57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P57">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q57">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
         <v>118</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>2</v>
+      </c>
+      <c r="P58">
+        <v>2</v>
+      </c>
+      <c r="Q58">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1238</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>1238</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
         <v>0.33333299999999999</v>
       </c>
-      <c r="G58">
-        <v>0.33333299999999999</v>
-      </c>
-      <c r="H58">
-        <v>0.33333299999999999</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0.33333299999999999</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0.25</v>
-      </c>
-      <c r="O58">
-        <v>1</v>
-      </c>
-      <c r="P58">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
-      <c r="A59" t="s">
-        <v>104</v>
-      </c>
-      <c r="B59">
-        <v>4</v>
-      </c>
-      <c r="C59">
-        <v>780</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>780</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
       <c r="O59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P59">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q59">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C60">
         <v>1004</v>
@@ -18379,13 +18563,13 @@
         <v>1004</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -18397,45 +18581,48 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O60">
         <v>1</v>
       </c>
       <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
         <v>1104</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C61">
-        <v>774</v>
+        <v>2056</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E61">
-        <v>774</v>
+        <v>2056</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>0.14285700000000001</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>0.14285700000000001</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>0.14285700000000001</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -18447,36 +18634,39 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P61">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
+        <v>3</v>
+      </c>
+      <c r="Q61">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B62">
         <v>4</v>
       </c>
       <c r="C62">
-        <v>1004</v>
+        <v>1974</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>1004</v>
+        <v>1974</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -18509,24 +18699,27 @@
         <v>1</v>
       </c>
       <c r="P62">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B63">
         <v>4</v>
       </c>
       <c r="C63">
-        <v>780</v>
+        <v>1092</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>780</v>
+        <v>1092</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -18556,27 +18749,30 @@
         <v>0</v>
       </c>
       <c r="O63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P63">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q63">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B64">
         <v>4</v>
       </c>
       <c r="C64">
-        <v>976</v>
+        <v>1005</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64">
-        <v>976</v>
+        <v>1005</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -18606,27 +18802,30 @@
         <v>0</v>
       </c>
       <c r="O64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P64">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q64">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B65">
         <v>4</v>
       </c>
       <c r="C65">
-        <v>1406</v>
+        <v>1042</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <v>1406</v>
+        <v>1042</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -18656,27 +18855,30 @@
         <v>0</v>
       </c>
       <c r="O65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P65">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q65">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B66">
         <v>4</v>
       </c>
       <c r="C66">
-        <v>1004</v>
+        <v>925</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1004</v>
+        <v>925</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -18709,24 +18911,27 @@
         <v>1</v>
       </c>
       <c r="P66">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B67">
         <v>4</v>
       </c>
       <c r="C67">
-        <v>1019</v>
+        <v>1049</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1019</v>
+        <v>1049</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -18759,24 +18964,27 @@
         <v>1</v>
       </c>
       <c r="P67">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B68">
         <v>4</v>
       </c>
       <c r="C68">
-        <v>1056</v>
+        <v>1042</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68">
-        <v>1056</v>
+        <v>1042</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -18806,27 +19014,30 @@
         <v>0</v>
       </c>
       <c r="O68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P68">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q68">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
       <c r="C69">
-        <v>780</v>
+        <v>1030</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69">
-        <v>780</v>
+        <v>1030</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -18856,27 +19067,30 @@
         <v>0</v>
       </c>
       <c r="O69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P69">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q69">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B70">
         <v>4</v>
       </c>
       <c r="C70">
-        <v>966</v>
+        <v>1974</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70">
-        <v>966</v>
+        <v>1974</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -18909,24 +19123,27 @@
         <v>1</v>
       </c>
       <c r="P70">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B71">
         <v>4</v>
       </c>
       <c r="C71">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -18956,27 +19173,30 @@
         <v>0</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P71">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q71">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B72">
         <v>4</v>
       </c>
       <c r="C72">
-        <v>1004</v>
+        <v>925</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1004</v>
+        <v>925</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -19009,77 +19229,324 @@
         <v>1</v>
       </c>
       <c r="P72">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>1005</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>1005</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>2</v>
+      </c>
+      <c r="P73">
+        <v>2</v>
+      </c>
+      <c r="Q73">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>1042</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>1042</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>2</v>
+      </c>
+      <c r="P74">
+        <v>2</v>
+      </c>
+      <c r="Q74">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>1005</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>1005</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>2</v>
+      </c>
+      <c r="P75">
+        <v>2</v>
+      </c>
+      <c r="Q75">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>1005</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>1005</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>2</v>
+      </c>
+      <c r="P76">
+        <v>2</v>
+      </c>
+      <c r="Q76">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" t="s">
         <v>84</v>
       </c>
-      <c r="F73">
-        <v>0.446009408</v>
-      </c>
-      <c r="G73">
-        <v>0.446009408</v>
-      </c>
-      <c r="H73">
-        <v>0.446009408</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0.27531856300000002</v>
-      </c>
-      <c r="L73">
-        <v>0.268209268</v>
-      </c>
-      <c r="M73">
-        <v>1.1737085E-2</v>
-      </c>
-      <c r="N73">
-        <v>0.26562708499999999</v>
-      </c>
-      <c r="O73">
-        <v>6.549295775</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
-      <c r="A74" t="s">
-        <v>27</v>
-      </c>
-      <c r="F74">
-        <v>0.41382332900000002</v>
-      </c>
-      <c r="G74">
-        <v>0.41382332900000002</v>
-      </c>
-      <c r="H74">
-        <v>0.41382332900000002</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0.40623446200000002</v>
-      </c>
-      <c r="L74">
-        <v>0.26059829000000001</v>
-      </c>
-      <c r="M74">
-        <v>5.8580685E-2</v>
-      </c>
-      <c r="N74">
-        <v>0.27578901700000003</v>
-      </c>
-      <c r="O74">
-        <v>10.870390629999999</v>
+      <c r="F77">
+        <f>AVERAGE(F2:F76)</f>
+        <v>0.37498415999999996</v>
+      </c>
+      <c r="G77">
+        <f t="shared" ref="G77:Q77" si="0">AVERAGE(G2:G76)</f>
+        <v>0.36142859999999993</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="0"/>
+        <v>0.37253970666666658</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="0"/>
+        <v>0.25961903999999997</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="0"/>
+        <v>0.26101588000000003</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="0"/>
+        <v>0.12523809333333333</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="0"/>
+        <v>0.28784126666666665</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="0"/>
+        <v>1.6933333333333334</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="0"/>
+        <v>1.72</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="0"/>
+        <v>2076.84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" t="s">
+        <v>120</v>
+      </c>
+      <c r="F78">
+        <f>STDEV(F2:F76)</f>
+        <v>0.40061058811991573</v>
+      </c>
+      <c r="G78">
+        <f t="shared" ref="G78:P78" si="1">STDEV(G2:G76)</f>
+        <v>0.3942744250361257</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="1"/>
+        <v>0.4004061104947168</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="1"/>
+        <v>0.38293752345090781</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="1"/>
+        <v>0.25739568848569699</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="1"/>
+        <v>0.27647796828676541</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="1"/>
+        <v>0.3154466739361621</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="1"/>
+        <v>0.54458844697310327</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="1"/>
+        <v>0.58263149542353054</v>
       </c>
     </row>
   </sheetData>
